--- a/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Isolat microbiologique</t>
+    <t>Isolat microbiologique</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -308,9 +308,6 @@
   <si>
     <t xml:space="preserve">Base
 </t>
-  </si>
-  <si>
-    <t>Isolat microbiologique</t>
   </si>
   <si>
     <t>fr-lm-isolat-microbiologique.isolatMicrobiologique.isolat</t>
@@ -1502,10 +1499,10 @@
         <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1573,10 +1570,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1602,10 +1599,10 @@
         <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1656,7 +1653,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -1673,10 +1670,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1702,10 +1699,10 @@
         <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1756,7 +1753,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -1773,10 +1770,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1802,10 +1799,10 @@
         <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1856,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -1873,10 +1870,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1956,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -1973,10 +1970,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1999,13 +1996,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2056,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2073,10 +2070,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2099,13 +2096,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2156,7 +2153,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2173,10 +2170,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2199,13 +2196,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2256,7 +2253,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2273,10 +2270,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2299,13 +2296,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2356,7 +2353,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2373,10 +2370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2399,13 +2396,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2456,7 +2453,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2473,10 +2470,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2499,13 +2496,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2556,7 +2553,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -2573,10 +2570,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2599,13 +2596,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2656,7 +2653,7 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -2673,10 +2670,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2699,13 +2696,13 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2756,7 +2753,7 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -2773,10 +2770,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2799,13 +2796,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2856,7 +2853,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-isolat-microbiologique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
